--- a/data/용산돌산치.xlsx
+++ b/data/용산돌산치.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\opencv\photobooth\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B634983-D231-40EC-9A0D-BA70499C7B09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8EF61AA-D42B-4F2E-9C1F-FFDF7415108F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="5256" windowWidth="17280" windowHeight="9144" xr2:uid="{51701044-363B-4CE5-9409-8B3005DC2562}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11430" xr2:uid="{51701044-363B-4CE5-9409-8B3005DC2562}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -104,539 +105,540 @@
     <t>web/static/template/mj/special_nav_photo.png</t>
   </si>
   <si>
+    <t>static/template/mj/banner.jpg</t>
+  </si>
+  <si>
+    <t>6*2</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>504</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>557</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>388</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>643</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>504</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>557</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>388</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>910</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>557</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>388</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>643</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>910</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>557</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>388</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1316</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>557</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>388</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>643</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1316</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>557</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>388</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>539</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>733</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>512</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+  </si>
+  <si>
     <t>web/static/template/mj/special_nav_movie.png</t>
-  </si>
-  <si>
-    <t>static/template/mj/banner.jpg</t>
-  </si>
-  <si>
-    <t>6*2</t>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>46</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>504</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>557</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>388</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>],[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>643</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>504</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>557</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>388</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>],[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>46</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>910</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>557</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>388</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>],[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>643</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>910</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>557</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>388</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>],[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>46</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1316</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>557</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>388</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>],[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>643</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1316</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>557</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>388</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>34</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>539</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>733</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>512</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]]</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1041,25 +1043,25 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
     <col min="2" max="2" width="14.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="43.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.796875" style="1"/>
+    <col min="8" max="8" width="8.69921875" style="1"/>
     <col min="9" max="9" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="82.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.796875" style="1"/>
+    <col min="15" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
@@ -1123,31 +1125,31 @@
         <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
